--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\OneDrive\Documents\CSCE_315\Team-Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcroc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2ED1B2-8ADB-4C16-9A8C-8551D516B9B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B7DAD-B5F8-43A9-83A8-0EAC2B154088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F1519E5E-B2B4-4DA5-8280-B0481399C8D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{F1519E5E-B2B4-4DA5-8280-B0481399C8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hours</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Hours Used</t>
+  </si>
+  <si>
+    <t>Hours used</t>
   </si>
 </sst>
 </file>
@@ -208,10 +214,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -313,16 +319,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -424,6 +433,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,7 +447,201 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8768-476C-B7E2-7F65647EAEB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -727,7 +933,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1293,15 +1499,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1626,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8E1F14-0EC8-44F7-A041-3D06257AE790}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,11 +1847,17 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1658,10 +1870,16 @@
       <c r="B2">
         <v>96</v>
       </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
@@ -1676,11 +1894,17 @@
       <c r="B3">
         <v>94</v>
       </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1690,11 +1914,17 @@
       <c r="B4">
         <v>93</v>
       </c>
+      <c r="C4">
+        <v>96</v>
+      </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1704,11 +1934,17 @@
       <c r="B5">
         <v>92</v>
       </c>
+      <c r="C5">
+        <v>94</v>
+      </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1760,11 +1996,17 @@
       <c r="B9">
         <v>90</v>
       </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
         <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,11 +2016,17 @@
       <c r="B10">
         <v>86</v>
       </c>
+      <c r="C10">
+        <v>89</v>
+      </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
         <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1788,10 +2036,16 @@
       <c r="B11">
         <v>85.5</v>
       </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
         <v>0.5</v>
       </c>
     </row>
@@ -1865,7 +2119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1879,21 +2133,27 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>80</v>
       </c>
+      <c r="C18">
+        <v>82.5</v>
+      </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1907,63 +2167,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>77</v>
       </c>
+      <c r="C20">
+        <v>78.5</v>
+      </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>76.5</v>
       </c>
+      <c r="C21">
+        <v>77.5</v>
+      </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>73.5</v>
       </c>
+      <c r="C22">
+        <v>73.5</v>
+      </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>73</v>
       </c>
+      <c r="C23">
+        <v>73</v>
+      </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1977,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1991,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2005,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2019,7 +2303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2033,7 +2317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2047,7 +2331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2061,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2075,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2129,6 +2413,14 @@
       </c>
       <c r="E35">
         <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
